--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_17-09.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_17-09.xlsx
@@ -50,6 +50,12 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>CAPOTRIL 25MG 20 TAB.</t>
   </si>
   <si>
@@ -201,9 +207,6 @@
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t xml:space="preserve">برفان القصاص </t>
@@ -872,13 +875,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>20</v>
+        <v>-44</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -890,7 +893,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -898,13 +901,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -930,7 +933,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -956,11 +959,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -976,17 +979,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -994,7 +997,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1002,17 +1005,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1038,7 +1041,7 @@
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1054,17 +1057,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1072,7 +1075,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1080,17 +1083,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>128.66999999999999</v>
+        <v>34</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1098,7 +1101,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1106,13 +1109,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>23</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1138,7 +1141,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1158,17 +1161,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1176,7 +1179,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1184,17 +1187,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1210,17 +1213,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1228,7 +1231,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1236,17 +1239,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1254,7 +1257,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1262,13 +1265,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>51.299999999999997</v>
+        <v>48</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1294,11 +1297,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>16</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1314,17 +1317,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1332,7 +1335,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1340,17 +1343,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1366,17 +1369,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1384,7 +1387,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1392,17 +1395,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1424,11 +1427,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1444,13 +1447,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1462,7 +1465,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1470,17 +1473,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1488,7 +1491,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1496,17 +1499,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1514,7 +1517,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1522,17 +1525,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>39.899999999999999</v>
+        <v>85</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1548,13 +1551,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>80.75</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1566,7 +1569,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1574,13 +1577,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>-86.5</v>
+        <v>80.75</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1592,7 +1595,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1600,17 +1603,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>21</v>
+        <v>-86.5</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1626,17 +1629,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1644,7 +1647,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1652,17 +1655,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>58</v>
+        <v>-23</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1670,7 +1673,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1678,17 +1681,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1696,7 +1699,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1704,17 +1707,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1722,7 +1725,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1730,13 +1733,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1748,7 +1751,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1756,17 +1759,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1774,7 +1777,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1782,17 +1785,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1808,17 +1811,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1826,7 +1829,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1834,17 +1837,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1852,7 +1855,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1860,17 +1863,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1878,7 +1881,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1886,51 +1889,77 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="K46" s="10">
-        <v>2237.1700000000001</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
         <v>73</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c t="s" r="F47" s="12">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>49</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>20</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="26.25" customHeight="1">
+      <c r="K47" s="10">
+        <v>2193.1700000000001</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="11">
         <v>74</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c t="s" r="I47" s="14">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c t="s" r="F48" s="12">
         <v>75</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
+      <c t="s" r="I48" s="14">
+        <v>76</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="140">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2064,10 +2093,13 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="I48:N48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
